--- a/CS162-ProjectPlanner.xlsx
+++ b/CS162-ProjectPlanner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2469FF-7643-41A4-A742-481A0138BA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B46339F-54A8-4623-B94A-DEC6D4A0383F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,7 +648,7 @@
     <numFmt numFmtId="167" formatCode="dd\ mmm\ yy"/>
     <numFmt numFmtId="168" formatCode="[&lt;=9999999][$-1000000]###\-####;[$-1000000]\(#\)\ ###\-####"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -919,6 +919,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1102,7 +1107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1295,6 +1300,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2028,8 +2036,8 @@
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2123,7 +2131,7 @@
         <v>144</v>
       </c>
       <c r="G7" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3">
         <v>8</v>
@@ -2144,10 +2152,10 @@
         <v>143</v>
       </c>
       <c r="G8" s="3">
-        <v>25</v>
+        <v>27.5</v>
       </c>
       <c r="H8" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -2165,7 +2173,7 @@
         <v>146</v>
       </c>
       <c r="G9" s="3">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H9" s="3">
         <v>30</v>
@@ -2186,7 +2194,7 @@
         <v>145</v>
       </c>
       <c r="G10" s="3">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="H10" s="3">
         <v>21</v>
@@ -2298,11 +2306,11 @@
   <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="6" topLeftCell="Z13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="6" topLeftCell="P45" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K7" sqref="K7"/>
       <selection pane="topRight" activeCell="K7" sqref="K7"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
-      <selection pane="bottomRight" activeCell="AF13" sqref="AF13"/>
+      <selection pane="bottomRight" activeCell="AB44" sqref="AB44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2907,16 +2915,16 @@
       <c r="E9" s="38">
         <v>1</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="69">
         <v>15</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="69">
         <v>14</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="69">
         <v>22</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="69">
         <v>10</v>
       </c>
       <c r="J9" s="34">
@@ -2937,16 +2945,16 @@
       <c r="E10" s="38">
         <v>1</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="69">
         <v>15</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="69">
         <v>14</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="69">
         <v>22</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="69">
         <v>10</v>
       </c>
       <c r="J10" s="34">
@@ -2967,16 +2975,16 @@
       <c r="E11" s="38">
         <v>1</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="69">
         <v>15</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="69">
         <v>14</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="69">
         <v>22</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="69">
         <v>10</v>
       </c>
       <c r="J11" s="34">
@@ -2997,16 +3005,16 @@
       <c r="E12" s="38">
         <v>1</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="69">
         <v>15</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="69">
         <v>14</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="69">
         <v>22</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="69">
         <v>10</v>
       </c>
       <c r="J12" s="34">
@@ -3027,16 +3035,16 @@
       <c r="E13" s="38">
         <v>1</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="69">
         <v>15</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="69">
         <v>14</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="69">
         <v>22</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="69">
         <v>10</v>
       </c>
       <c r="J13" s="34">
@@ -3058,10 +3066,10 @@
       <c r="E14" s="32">
         <v>9</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="34">
         <v>1</v>
       </c>
@@ -3080,16 +3088,16 @@
       <c r="E15" s="38">
         <v>3</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="69">
         <v>15</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="69">
         <v>21</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="69">
         <v>23</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="69">
         <v>24</v>
       </c>
       <c r="J15" s="34">
@@ -3110,16 +3118,16 @@
       <c r="E16" s="38">
         <v>1</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="69">
         <v>15</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="69">
         <v>21</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="69">
         <v>23</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="69">
         <v>24</v>
       </c>
       <c r="J16" s="34">
@@ -3140,16 +3148,16 @@
       <c r="E17" s="38">
         <v>1</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="69">
         <v>15</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="69">
         <v>21</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="69">
         <v>23</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="69">
         <v>24</v>
       </c>
       <c r="J17" s="34">
@@ -3170,16 +3178,16 @@
       <c r="E18" s="38">
         <v>1</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="69">
         <v>15</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="69">
         <v>21</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="69">
         <v>23</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="69">
         <v>24</v>
       </c>
       <c r="J18" s="34">
@@ -3200,16 +3208,16 @@
       <c r="E19" s="38">
         <v>1</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="69">
         <v>15</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="69">
         <v>21</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="69">
         <v>23</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="69">
         <v>24</v>
       </c>
       <c r="J19" s="34">
@@ -3230,16 +3238,16 @@
       <c r="E20" s="38">
         <v>1</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="69">
         <v>15</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="69">
         <v>21</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="69">
         <v>23</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="69">
         <v>24</v>
       </c>
       <c r="J20" s="34">
@@ -3260,16 +3268,16 @@
       <c r="E21" s="38">
         <v>1</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="69">
         <v>15</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="69">
         <v>21</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="69">
         <v>23</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="69">
         <v>24</v>
       </c>
       <c r="J21" s="34">
@@ -3290,10 +3298,10 @@
       <c r="E22" s="41">
         <v>13</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
       <c r="J22" s="34">
         <v>1</v>
       </c>
@@ -3312,16 +3320,16 @@
       <c r="E23" s="38">
         <v>1</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="69">
         <v>15</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="69">
         <v>25</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="69">
         <v>23</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="69">
         <v>27</v>
       </c>
       <c r="J23" s="34">
@@ -3342,16 +3350,16 @@
       <c r="E24" s="38">
         <v>3</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="69">
         <v>15</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="69">
         <v>25</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="69">
         <v>23</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="69">
         <v>27</v>
       </c>
       <c r="J24" s="34">
@@ -3372,16 +3380,16 @@
       <c r="E25" s="38">
         <v>1</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="69">
         <v>15</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="69">
         <v>25</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="69">
         <v>23</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="69">
         <v>27</v>
       </c>
       <c r="J25" s="34">
@@ -3402,16 +3410,16 @@
       <c r="E26" s="38">
         <v>1</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="69">
         <v>15</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="69">
         <v>25</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="69">
         <v>23</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="69">
         <v>27</v>
       </c>
       <c r="J26" s="34">
@@ -3432,16 +3440,16 @@
       <c r="E27" s="38">
         <v>1</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="69">
         <v>15</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="69">
         <v>25</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="69">
         <v>23</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="69">
         <v>27</v>
       </c>
       <c r="J27" s="34">
@@ -3462,16 +3470,16 @@
       <c r="E28" s="38">
         <v>1</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="69">
         <v>15</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="69">
         <v>25</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="69">
         <v>23</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="69">
         <v>27</v>
       </c>
       <c r="J28" s="34">
@@ -3492,16 +3500,16 @@
       <c r="E29" s="38">
         <v>1</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="69">
         <v>15</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="69">
         <v>25</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="69">
         <v>23</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="69">
         <v>27</v>
       </c>
       <c r="J29" s="34">
@@ -3522,16 +3530,16 @@
       <c r="E30" s="38">
         <v>1</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="69">
         <v>15</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="69">
         <v>25</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="69">
         <v>23</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="69">
         <v>27</v>
       </c>
       <c r="J30" s="34">
@@ -3552,16 +3560,16 @@
       <c r="E31" s="38">
         <v>1</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="69">
         <v>15</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="69">
         <v>25</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="69">
         <v>23</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="69">
         <v>27</v>
       </c>
       <c r="J31" s="34">
@@ -3582,16 +3590,16 @@
       <c r="E32" s="38">
         <v>1</v>
       </c>
-      <c r="F32" s="33">
+      <c r="F32" s="69">
         <v>15</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="69">
         <v>21</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="69">
         <v>23</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="69">
         <v>27</v>
       </c>
       <c r="J32" s="34">
@@ -3612,16 +3620,16 @@
       <c r="E33" s="38">
         <v>1</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="69">
         <v>15</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="69">
         <v>25</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33" s="69">
         <v>23</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="69">
         <v>27</v>
       </c>
       <c r="J33" s="34">
@@ -3642,10 +3650,10 @@
       <c r="E34" s="41">
         <v>4</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
       <c r="J34" s="34">
         <v>1</v>
       </c>
@@ -3664,16 +3672,16 @@
       <c r="E35" s="38">
         <v>1</v>
       </c>
-      <c r="F35" s="33">
+      <c r="F35" s="69">
         <v>15</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="69">
         <v>21</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H35" s="69">
         <v>23</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="69">
         <v>27</v>
       </c>
       <c r="J35" s="34">
@@ -3694,16 +3702,16 @@
       <c r="E36" s="38">
         <v>1</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="69">
         <v>15</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="69">
         <v>21</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="69">
         <v>23</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="69">
         <v>27</v>
       </c>
       <c r="J36" s="34">
@@ -3720,10 +3728,10 @@
       <c r="C37" s="37"/>
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33">
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69">
         <v>27</v>
       </c>
       <c r="J37" s="34">
@@ -3744,16 +3752,16 @@
       <c r="E38" s="38">
         <v>1</v>
       </c>
-      <c r="F38" s="33">
+      <c r="F38" s="69">
         <v>15</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="69">
         <v>21</v>
       </c>
-      <c r="H38" s="33">
+      <c r="H38" s="69">
         <v>23</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="69">
         <v>27</v>
       </c>
       <c r="J38" s="34">
@@ -3774,16 +3782,16 @@
       <c r="E39" s="38">
         <v>1</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="69">
         <v>15</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="69">
         <v>21</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="69">
         <v>23</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="69">
         <v>27</v>
       </c>
       <c r="J39" s="34">
@@ -3804,10 +3812,10 @@
       <c r="E40" s="41">
         <v>8</v>
       </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
       <c r="J40" s="34">
         <v>1</v>
       </c>
@@ -3826,16 +3834,16 @@
       <c r="E41" s="38">
         <v>1</v>
       </c>
-      <c r="F41" s="33">
+      <c r="F41" s="69">
         <v>15</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="69">
         <v>25</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="69">
         <v>23</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="69">
         <v>27</v>
       </c>
       <c r="J41" s="34">
@@ -3856,16 +3864,16 @@
       <c r="E42" s="38">
         <v>1</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="69">
         <v>15</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="69">
         <v>25</v>
       </c>
-      <c r="H42" s="33">
+      <c r="H42" s="69">
         <v>23</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="69">
         <v>27</v>
       </c>
       <c r="J42" s="34">
@@ -3886,16 +3894,16 @@
       <c r="E43" s="38">
         <v>1</v>
       </c>
-      <c r="F43" s="33">
+      <c r="F43" s="69">
         <v>15</v>
       </c>
-      <c r="G43" s="33">
+      <c r="G43" s="69">
         <v>21</v>
       </c>
-      <c r="H43" s="33">
+      <c r="H43" s="69">
         <v>23</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="69">
         <v>27</v>
       </c>
       <c r="J43" s="34">
@@ -3916,16 +3924,16 @@
       <c r="E44" s="38">
         <v>1</v>
       </c>
-      <c r="F44" s="33">
+      <c r="F44" s="69">
         <v>15</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G44" s="69">
         <v>21</v>
       </c>
-      <c r="H44" s="33">
+      <c r="H44" s="69">
         <v>23</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="69">
         <v>27</v>
       </c>
       <c r="J44" s="34">
@@ -3946,16 +3954,16 @@
       <c r="E45" s="38">
         <v>1</v>
       </c>
-      <c r="F45" s="33">
+      <c r="F45" s="69">
         <v>15</v>
       </c>
-      <c r="G45" s="33">
+      <c r="G45" s="69">
         <v>21</v>
       </c>
-      <c r="H45" s="33">
+      <c r="H45" s="69">
         <v>23</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="69">
         <v>27</v>
       </c>
       <c r="J45" s="34">
@@ -3976,16 +3984,16 @@
       <c r="E46" s="38">
         <v>1</v>
       </c>
-      <c r="F46" s="33">
+      <c r="F46" s="69">
         <v>15</v>
       </c>
-      <c r="G46" s="33">
+      <c r="G46" s="69">
         <v>21</v>
       </c>
-      <c r="H46" s="33">
+      <c r="H46" s="69">
         <v>23</v>
       </c>
-      <c r="I46" s="33">
+      <c r="I46" s="69">
         <v>27</v>
       </c>
       <c r="J46" s="34">
@@ -4006,16 +4014,16 @@
       <c r="E47" s="38">
         <v>1</v>
       </c>
-      <c r="F47" s="33">
+      <c r="F47" s="69">
         <v>15</v>
       </c>
-      <c r="G47" s="33">
+      <c r="G47" s="69">
         <v>21</v>
       </c>
-      <c r="H47" s="33">
+      <c r="H47" s="69">
         <v>23</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="69">
         <v>27</v>
       </c>
       <c r="J47" s="34">
@@ -4036,10 +4044,10 @@
       <c r="E48" s="41">
         <v>6</v>
       </c>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
       <c r="J48" s="34">
         <v>1</v>
       </c>
@@ -4058,16 +4066,16 @@
       <c r="E49" s="38">
         <v>3</v>
       </c>
-      <c r="F49" s="33">
+      <c r="F49" s="69">
         <v>15</v>
       </c>
-      <c r="G49" s="33">
+      <c r="G49" s="69">
         <v>25</v>
       </c>
-      <c r="H49" s="33">
+      <c r="H49" s="69">
         <v>23</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="69">
         <v>25</v>
       </c>
       <c r="J49" s="34">
@@ -4088,16 +4096,16 @@
       <c r="E50" s="38">
         <v>1</v>
       </c>
-      <c r="F50" s="33">
+      <c r="F50" s="69">
         <v>15</v>
       </c>
-      <c r="G50" s="33">
+      <c r="G50" s="69">
         <v>25</v>
       </c>
-      <c r="H50" s="33">
+      <c r="H50" s="69">
         <v>23</v>
       </c>
-      <c r="I50" s="33">
+      <c r="I50" s="69">
         <v>25</v>
       </c>
       <c r="J50" s="34">
@@ -4118,16 +4126,16 @@
       <c r="E51" s="38">
         <v>1</v>
       </c>
-      <c r="F51" s="33">
+      <c r="F51" s="69">
         <v>15</v>
       </c>
-      <c r="G51" s="33">
+      <c r="G51" s="69">
         <v>25</v>
       </c>
-      <c r="H51" s="33">
+      <c r="H51" s="69">
         <v>23</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="69">
         <v>25</v>
       </c>
       <c r="J51" s="34">
@@ -4148,16 +4156,16 @@
       <c r="E52" s="38">
         <v>1</v>
       </c>
-      <c r="F52" s="33">
+      <c r="F52" s="69">
         <v>15</v>
       </c>
-      <c r="G52" s="33">
+      <c r="G52" s="69">
         <v>25</v>
       </c>
-      <c r="H52" s="33">
+      <c r="H52" s="69">
         <v>23</v>
       </c>
-      <c r="I52" s="33">
+      <c r="I52" s="69">
         <v>25</v>
       </c>
       <c r="J52" s="34">
